--- a/team_project/bin/course_areas/course_areas.xlsx
+++ b/team_project/bin/course_areas/course_areas.xlsx
@@ -739,7 +739,7 @@
   <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
